--- a/playground/doc/TestControl.xlsx
+++ b/playground/doc/TestControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="14" r:id="rId17"/>
-    <sheet name="setting.ini" sheetId="13" r:id="rId16"/>
-    <sheet name="template-statefunc" sheetId="12" r:id="rId15"/>
-    <sheet name="template-source" sheetId="11" r:id="rId14"/>
-    <sheet name="config" sheetId="10" r:id="rId13"/>
+    <sheet name="help" sheetId="34" r:id="rId37"/>
+    <sheet name="setting.ini" sheetId="33" r:id="rId36"/>
+    <sheet name="template-statefunc" sheetId="32" r:id="rId35"/>
+    <sheet name="template-source" sheetId="31" r:id="rId34"/>
+    <sheet name="config" sheetId="30" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -157,7 +157,7 @@
     &gt;&gt;&gt;
     [[update]]
     &lt;&lt;&lt;?wait
-    if (![[wait]]) return;
+    if ([[wait]]) return;
     &gt;&gt;&gt;
     [[post_wait]]
     [[branch]]
@@ -369,13 +369,13 @@
 </t>
   </si>
   <si>
-    <t>S_0001</t>
-  </si>
-  <si>
-    <t>50,100</t>
-  </si>
-  <si>
-    <t>312,100</t>
+    <t>S_GET_NUM</t>
+  </si>
+  <si>
+    <t>40,104</t>
+  </si>
+  <si>
+    <t>485,101</t>
   </si>
   <si>
     <t>100001</t>
@@ -387,16 +387,10 @@
     <t>(bitmap)</t>
   </si>
   <si>
-    <t>new state</t>
-  </si>
-  <si>
-    <t>int x = 1;</t>
-  </si>
-  <si>
-    <t>brif(S_END);</t>
-  </si>
-  <si>
-    <t>x==1</t>
+    <t>int m_num = -1;</t>
+  </si>
+  <si>
+    <t>m_num = 10;</t>
   </si>
   <si>
     <t>/
@@ -404,13 +398,13 @@
 </t>
   </si>
   <si>
-    <t>117,315</t>
+    <t>179,204</t>
   </si>
   <si>
     <t>100003</t>
   </si>
   <si>
-    <t>; The setting was created automatically. 2018/10/09 21:54:35
+    <t>; The setting was created automatically. 2018/10/10 20:15:01
 ; * pssgEditor version : 0.12.1252.no hash because of debug
 psggfile=@@@
 @@@
@@ -418,7 +412,299 @@
 TestControl.xlsx
 @@@
 guid=@@@
-172f22f0-ce75-4f9b-9882-493120480f11
+f66e1c36-9ca6-4035-a5ee-d9bbc3c60d38
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":40,"y":104}},{"Key":"S_END","Value":{"x":485,"y":101}},{"Key":"S_START1","Value":{"x":179,"y":204}},{"Key":"S_GET_NUM","Value":{"x":179,"y":204}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>230,259</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/10 20:15:28
+; * pssgEditor version : 0.12.1252.no hash because of debug
+psggfile=@@@
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+f66e1c36-9ca6-4035-a5ee-d9bbc3c60d38
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":40,"y":104}},{"Key":"S_END","Value":{"x":485,"y":101}},{"Key":"S_START1","Value":{"x":179,"y":204}},{"Key":"S_GET_NUM","Value":{"x":230,"y":259}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>611,326</t>
+  </si>
+  <si>
+    <t>brifc(S_GET_NUM1);
+brelse(S_GET_NUM2);</t>
+  </si>
+  <si>
+    <t>m_num==10
+?</t>
+  </si>
+  <si>
+    <t>108,272</t>
+  </si>
+  <si>
+    <t>S_GET_NUM1</t>
+  </si>
+  <si>
+    <t>new state</t>
+  </si>
+  <si>
+    <t>System.out.println("==10!!");</t>
+  </si>
+  <si>
+    <t>420,223</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>S_GET_NUM2</t>
+  </si>
+  <si>
+    <t>System.out.println("Nothing");</t>
+  </si>
+  <si>
+    <t>428,395</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/10 20:18:18
+; * pssgEditor version : 0.12.1252.no hash because of debug
+psggfile=@@@
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+f66e1c36-9ca6-4035-a5ee-d9bbc3c60d38
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":40,"y":104}},{"Key":"S_END","Value":{"x":611,"y":326}},{"Key":"S_START1","Value":{"x":179,"y":204}},{"Key":"S_GET_NUM","Value":{"x":108,"y":272}},{"Key":"S_GET_NUM1","Value":{"x":420,"y":223}},{"Key":"S_GET_NUM2","Value":{"x":428,"y":395}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>m_num = 11;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/10 20:18:59
+; * pssgEditor version : 0.12.1252.no hash because of debug
+psggfile=@@@
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+f66e1c36-9ca6-4035-a5ee-d9bbc3c60d38
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":40,"y":104}},{"Key":"S_END","Value":{"x":611,"y":326}},{"Key":"S_START1","Value":{"x":179,"y":204}},{"Key":"S_GET_NUM","Value":{"x":108,"y":272}},{"Key":"S_GET_NUM1","Value":{"x":420,"y":223}},{"Key":"S_GET_NUM2","Value":{"x":428,"y":395}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>brifc(S_GET_NUM1);
+brelseifc(S_GET_NUM3);
+brelse(S_GET_NUM2);</t>
+  </si>
+  <si>
+    <t>m_num==10
+m_num==1
+?</t>
+  </si>
+  <si>
+    <t>440,632</t>
+  </si>
+  <si>
+    <t>S_GET_NUM3</t>
+  </si>
+  <si>
+    <t>420,418</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/10 20:20:18
+; * pssgEditor version : 0.12.1252.no hash because of debug
+psggfile=@@@
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+f66e1c36-9ca6-4035-a5ee-d9bbc3c60d38
 @@@
 bitmap_width=5000
 bitmap_height=2000
@@ -435,7 +721,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":312,"y":100}},{"Key":"S_0001","Value":{"x":117,"y":315}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":40,"y":104}},{"Key":"S_END","Value":{"x":611,"y":326}},{"Key":"S_START1","Value":{"x":179,"y":204}},{"Key":"S_GET_NUM","Value":{"x":108,"y":272}},{"Key":"S_GET_NUM1","Value":{"x":420,"y":223}},{"Key":"S_GET_NUM2","Value":{"x":440,"y":632}},{"Key":"S_GET_NUM3","Value":{"x":420,"y":418}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -465,39 +751,12 @@
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>574,258</t>
-  </si>
-  <si>
-    <t>brifc(S_0002);
-brelse(S_0003);</t>
-  </si>
-  <si>
-    <t>x==1
-?</t>
-  </si>
-  <si>
-    <t>S_0002</t>
-  </si>
-  <si>
-    <t>342,302</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>S_0003</t>
-  </si>
-  <si>
-    <t>364,442</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>; The setting was created automatically. 2018/10/09 21:55:34
+    <t>/
+(100,100)
+This is the root</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/10/10 20:21:19
 ; * pssgEditor version : 0.12.1252.no hash because of debug
 psggfile=@@@
 @@@
@@ -505,7 +764,7 @@
 TestControl.xlsx
 @@@
 guid=@@@
-172f22f0-ce75-4f9b-9882-493120480f11
+f66e1c36-9ca6-4035-a5ee-d9bbc3c60d38
 @@@
 bitmap_width=5000
 bitmap_height=2000
@@ -514,7 +773,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Delete a state
 @@@
 target_pathdir=@@@
 /
@@ -522,7 +781,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":574,"y":258}},{"Key":"S_0001","Value":{"x":117,"y":315}},{"Key":"S_0002","Value":{"x":342,"y":302}},{"Key":"S_0003","Value":{"x":364,"y":442}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":40,"y":104}},{"Key":"S_END","Value":{"x":611,"y":326}},{"Key":"S_START1","Value":{"x":179,"y":204}},{"Key":"S_GET_NUM","Value":{"x":108,"y":272}},{"Key":"S_GET_NUM1","Value":{"x":420,"y":223}},{"Key":"S_GET_NUM2","Value":{"x":440,"y":632}},{"Key":"S_GET_NUM3","Value":{"x":420,"y":418}},{"Key":"S_GET_NUM4","Value":{"x":168,"y":597}},{"Key":"E_GET_NUM4","Value":{"x":121,"y":504}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1092,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
@@ -1119,6 +1378,15 @@
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
@@ -1138,10 +1406,13 @@
         <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="true">
@@ -1154,14 +1425,14 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="true">
@@ -1185,6 +1456,18 @@
         <v>31</v>
       </c>
       <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
@@ -1217,6 +1500,9 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" s="11" customFormat="true">
       <c r="A10" s="10"/>
@@ -1233,9 +1519,6 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="12" s="11" customFormat="true">
       <c r="A12" s="10"/>
@@ -1252,6 +1535,18 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
@@ -1362,7 +1657,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" s="13" customFormat="true">
@@ -1374,7 +1669,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" s="15" customFormat="true" ht="18.75" customHeight="true">
@@ -1391,14 +1686,23 @@
       <c r="B30" s="16" t="s">
         <v>16</v>
       </c>
+      <c r="D30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" s="16" customFormat="true">
@@ -1412,13 +1716,16 @@
         <v>46</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" s="16" customFormat="true">
@@ -1432,13 +1739,16 @@
         <v>35</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1448,35 +1758,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1504,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
